--- a/common/Card.xlsx
+++ b/common/Card.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>序号</t>
   </si>
@@ -29,6 +29,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">品质
 </t>
     </r>
@@ -93,6 +100,9 @@
     <t>技能id_2</t>
   </si>
   <si>
+    <t>兑换所需碎片</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -403,6 +413,31 @@
       </rPr>
       <t xml:space="preserve">skill_id_2
 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>piece_num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -432,9 +467,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -458,6 +493,75 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -466,7 +570,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,125 +607,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -637,181 +672,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,8 +891,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,6 +942,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -887,21 +961,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -918,30 +977,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -958,10 +993,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -970,137 +1005,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1114,6 +1149,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1443,10 +1484,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2"/>
@@ -1459,10 +1500,12 @@
     <col min="7" max="10" width="10.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="18.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="13" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="11.125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="98.25" spans="1:14">
+    <row r="1" ht="98.25" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1505,63 +1548,69 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" ht="32.25" spans="1:14">
+    <row r="2" ht="33.75" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="K2" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="L2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="N2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>301001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -1591,6 +1640,9 @@
         <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
         <v>0</v>
       </c>
     </row>

--- a/common/Card.xlsx
+++ b/common/Card.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>序号</t>
   </si>
@@ -22,10 +22,21 @@
     <t>名称_cn</t>
   </si>
   <si>
-    <t>特长介绍_cn</t>
-  </si>
-  <si>
-    <t>获取途径</t>
+    <t>特长
+1=聪慧
+2=才华
+3=魅力
+4=威严
+5=全能</t>
+  </si>
+  <si>
+    <t>获取途径
+1=主线剧情
+2=支线剧情
+3=充值奖励
+4=冲榜奖励
+5=积分兑换
+6=限时奖励</t>
   </si>
   <si>
     <r>
@@ -150,14 +161,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">speciality_cn </t>
+      <t xml:space="preserve">speciality_type </t>
     </r>
     <r>
       <rPr>
@@ -168,18 +172,11 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>string</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">gain_way </t>
     </r>
     <r>
@@ -191,7 +188,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>string</t>
+      <t>int</t>
     </r>
   </si>
   <si>
@@ -428,6 +425,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>piece_num</t>
     </r>
     <r>
@@ -455,10 +459,7 @@
     <t>对镜梳妆</t>
   </si>
   <si>
-    <t>全能</t>
-  </si>
-  <si>
-    <t>主线剧情</t>
+    <t>1,2</t>
   </si>
 </sst>
 </file>
@@ -466,10 +467,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -493,6 +494,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -501,34 +530,65 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,97 +601,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,25 +673,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,151 +841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,11 +889,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,6 +934,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -927,45 +976,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -976,15 +986,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -993,10 +994,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1005,137 +1006,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1149,12 +1150,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1487,14 +1482,15 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="1" customWidth="1"/>
     <col min="7" max="10" width="10.875" style="1" customWidth="1"/>
@@ -1505,7 +1501,7 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="98.25" spans="1:15">
+    <row r="1" ht="105.75" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +1544,7 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1583,19 +1579,19 @@
       <c r="J2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1609,8 +1605,8 @@
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>

--- a/common/Card.xlsx
+++ b/common/Card.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -172,11 +172,18 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">gain_way </t>
     </r>
     <r>
@@ -467,10 +474,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -494,6 +501,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -502,6 +539,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -509,46 +553,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,6 +574,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -570,25 +598,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -601,44 +646,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -673,181 +680,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,17 +896,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,16 +921,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,11 +953,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,17 +993,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -994,10 +1001,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1006,133 +1013,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1482,7 +1489,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2"/>

--- a/common/Card.xlsx
+++ b/common/Card.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -172,7 +172,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>string</t>
+      <t>array</t>
     </r>
   </si>
   <si>
@@ -474,10 +474,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -501,6 +501,119 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -516,51 +629,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,77 +645,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
@@ -680,67 +680,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,109 +854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,56 +899,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,6 +931,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -993,6 +969,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1001,10 +1001,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1013,133 +1013,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1489,7 +1489,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2"/>

--- a/common/Card.xlsx
+++ b/common/Card.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>序号</t>
   </si>
@@ -111,356 +111,69 @@
     <t>技能id_2</t>
   </si>
   <si>
+    <t>合成碎片id</t>
+  </si>
+  <si>
     <t>兑换所需碎片</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">name_cn </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>string</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">speciality_type </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>array</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">gain_way </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">card_quality </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">portray_id </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">maje </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>array</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">charm </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>array</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">intel </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>array</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">tale </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>array</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">attribute_friend_id </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">card_group_id </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">skill_id_1
+    <t>id</t>
+  </si>
+  <si>
+    <t>name_cn</t>
+  </si>
+  <si>
+    <t>speciality_type</t>
+  </si>
+  <si>
+    <t>gain_way</t>
+  </si>
+  <si>
+    <t>card_quality</t>
+  </si>
+  <si>
+    <t>portray_id</t>
+  </si>
+  <si>
+    <t>maje</t>
+  </si>
+  <si>
+    <t>charm</t>
+  </si>
+  <si>
+    <t>intel</t>
+  </si>
+  <si>
+    <t>tale</t>
+  </si>
+  <si>
+    <t>attribute_friend_id</t>
+  </si>
+  <si>
+    <t>card_group_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skill_id_1
 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">skill_id_2
+  </si>
+  <si>
+    <t xml:space="preserve">skill_id_2
 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>piece_num</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
+  </si>
+  <si>
+    <t>piece_id</t>
+  </si>
+  <si>
+    <t>piece_num</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>array</t>
   </si>
   <si>
     <t>对镜梳妆</t>
@@ -474,12 +187,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +236,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -532,83 +260,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,16 +281,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,18 +306,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -680,121 +385,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,60 +559,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -877,6 +582,19 @@
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -906,6 +624,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -916,6 +649,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,60 +711,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1001,10 +719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1013,137 +731,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1156,10 +874,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1486,15 +1207,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.69166666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
@@ -1503,12 +1224,12 @@
     <col min="7" max="10" width="10.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="18.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.5" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="11.125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="13" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="11.125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="105.75" spans="1:15">
+    <row r="1" ht="105.75" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1539,113 +1260,172 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" ht="33.75" spans="1:15">
+    <row r="2" ht="30.75" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="L2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="O2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
+    <row r="3" spans="1:16">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1">
         <v>301001</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M4" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N4" s="1">
         <v>0</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>0</v>
       </c>
     </row>

--- a/common/Card.xlsx
+++ b/common/Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>序号</t>
   </si>
@@ -189,8 +189,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -214,15 +214,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,6 +238,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -244,30 +312,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,78 +336,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,181 +385,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,6 +624,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -634,21 +664,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,21 +692,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -719,10 +719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,137 +731,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,9 +875,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1205,12 +1202,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3"/>
@@ -1272,7 +1269,7 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="5" t="s">
@@ -1329,7 +1326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" ht="15.75" spans="1:16">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -1399,16 +1396,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>4101</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>3101</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>1101</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>2101</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>

--- a/common/Card.xlsx
+++ b/common/Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>序号</t>
   </si>
@@ -117,63 +117,260 @@
     <t>兑换所需碎片</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name_cn</t>
-  </si>
-  <si>
-    <t>speciality_type</t>
-  </si>
-  <si>
-    <t>gain_way</t>
-  </si>
-  <si>
-    <t>card_quality</t>
-  </si>
-  <si>
-    <t>portray_id</t>
-  </si>
-  <si>
-    <t>maje</t>
-  </si>
-  <si>
-    <t>charm</t>
-  </si>
-  <si>
-    <t>intel</t>
-  </si>
-  <si>
-    <t>tale</t>
-  </si>
-  <si>
-    <t>attribute_friend_id</t>
-  </si>
-  <si>
-    <t>card_group_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skill_id_1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skill_id_2
-</t>
-  </si>
-  <si>
-    <t>piece_id</t>
-  </si>
-  <si>
-    <t>piece_num</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>array</t>
+    <r>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">name_cn </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">speciality_type </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gain_way </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">card_quality </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">portray_id </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">maje </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">charm </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">intel </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tale </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">attribute_friend_id </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">card_group_id </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">skill_id_1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">skill_id_2 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">piece_id </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">piece_num </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
   </si>
   <si>
     <t>对镜梳妆</t>
@@ -187,12 +384,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +411,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -222,109 +455,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,6 +500,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -344,15 +531,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,6 +560,14 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -385,67 +590,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,116 +768,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -582,19 +787,6 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -638,17 +830,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,26 +854,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,11 +889,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,10 +911,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,137 +923,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,10 +1066,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1202,15 +1391,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="9.69166666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
@@ -1257,26 +1446,26 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="30.75" spans="1:16">
+    <row r="2" ht="32.25" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1326,103 +1515,53 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:16">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="1">
+        <v>301001</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1">
-        <v>301001</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G3" s="1">
         <v>4101</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H3" s="1">
         <v>3101</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I3" s="1">
         <v>1101</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J3" s="1">
         <v>2101</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M3" s="1">
         <v>0</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N3" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O3" s="1">
         <v>0</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P3" s="1">
         <v>0</v>
       </c>
     </row>

--- a/common/Card.xlsx
+++ b/common/Card.xlsx
@@ -40,13 +40,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">品质
 </t>
     </r>
@@ -59,9 +52,10 @@
       </rPr>
       <t>1=普通
 2=稀有
-3=传说
-4=天赐
-5=盛世</t>
+3=卓越
+4=传说
+5=天赐
+6=盛世</t>
     </r>
   </si>
   <si>
@@ -118,6 +112,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -134,6 +135,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">name_cn </t>
     </r>
     <r>
@@ -150,6 +158,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">speciality_type </t>
     </r>
     <r>
@@ -166,6 +181,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">gain_way </t>
     </r>
     <r>
@@ -182,6 +204,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">card_quality </t>
     </r>
     <r>
@@ -198,6 +227,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">portray_id </t>
     </r>
     <r>
@@ -214,6 +250,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">maje </t>
     </r>
     <r>
@@ -230,6 +273,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">charm </t>
     </r>
     <r>
@@ -246,6 +296,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">intel </t>
     </r>
     <r>
@@ -262,6 +319,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">tale </t>
     </r>
     <r>
@@ -278,6 +342,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">attribute_friend_id </t>
     </r>
     <r>
@@ -294,6 +365,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">card_group_id </t>
     </r>
     <r>
@@ -310,6 +388,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">skill_id_1 </t>
     </r>
     <r>
@@ -326,6 +411,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">skill_id_2 </t>
     </r>
     <r>
@@ -342,6 +434,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">piece_id </t>
     </r>
     <r>
@@ -358,6 +457,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">piece_num </t>
     </r>
     <r>
@@ -384,9 +490,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -412,21 +518,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,115 +632,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,73 +696,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,103 +864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,11 +912,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,54 +992,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -889,17 +1001,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,10 +1017,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,133 +1029,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1396,7 +1502,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2"/>
@@ -1415,7 +1521,7 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="105.75" spans="1:16">
+    <row r="1" ht="114.75" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>

--- a/common/Card.xlsx
+++ b/common/Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>序号</t>
   </si>
@@ -40,6 +40,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">品质
 </t>
     </r>
@@ -491,9 +498,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -518,12 +525,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -531,17 +577,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,14 +608,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -570,54 +638,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,24 +653,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,181 +703,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,65 +919,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,11 +947,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,6 +1001,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1017,10 +1024,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,16 +1036,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1047,129 +1054,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1497,12 +1513,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2"/>
@@ -1513,7 +1529,7 @@
     <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="1" customWidth="1"/>
-    <col min="7" max="10" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="10" width="10.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="18.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.5" style="1" customWidth="1"/>
     <col min="13" max="15" width="9" style="1"/>
@@ -1522,102 +1538,102 @@
   </cols>
   <sheetData>
     <row r="1" ht="114.75" spans="1:16">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="32.25" spans="1:16">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1640,16 +1656,16 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>4101</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>3101</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>1101</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>2101</v>
       </c>
       <c r="K3" s="1">

--- a/common/Card.xlsx
+++ b/common/Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>序号</t>
   </si>
@@ -165,13 +165,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">speciality_type </t>
     </r>
     <r>
@@ -183,7 +176,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>string</t>
+      <t>array</t>
     </r>
   </si>
   <si>
@@ -497,8 +490,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -524,6 +517,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -533,7 +571,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,9 +585,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,38 +600,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,61 +632,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,181 +696,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,13 +912,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,39 +938,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,8 +960,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1016,6 +980,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1024,10 +1017,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1036,7 +1029,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1045,124 +1038,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1513,12 +1506,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2"/>

--- a/common/Card.xlsx
+++ b/common/Card.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>序号</t>
   </si>
@@ -165,6 +165,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">speciality_type </t>
     </r>
     <r>
@@ -483,6 +490,114 @@
   </si>
   <si>
     <t>1,2</t>
+  </si>
+  <si>
+    <t>乙丑</t>
+  </si>
+  <si>
+    <t>丙寅</t>
+  </si>
+  <si>
+    <t>丁卯</t>
+  </si>
+  <si>
+    <t>戊辰</t>
+  </si>
+  <si>
+    <t>己巳</t>
+  </si>
+  <si>
+    <t>庚午</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>辛未</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>壬申</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>癸酉</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>甲戌</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>乙亥</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>丙子</t>
+  </si>
+  <si>
+    <t>1,2,4</t>
+  </si>
+  <si>
+    <t>丁丑</t>
+  </si>
+  <si>
+    <t>1,3,4</t>
+  </si>
+  <si>
+    <t>戊寅</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>己卯</t>
+  </si>
+  <si>
+    <t>庚辰</t>
+  </si>
+  <si>
+    <t>辛巳</t>
+  </si>
+  <si>
+    <t>壬午</t>
+  </si>
+  <si>
+    <t>癸未</t>
+  </si>
+  <si>
+    <t>甲申</t>
+  </si>
+  <si>
+    <t>乙酉</t>
+  </si>
+  <si>
+    <t>丙戌</t>
+  </si>
+  <si>
+    <t>丁亥</t>
+  </si>
+  <si>
+    <t>戊子</t>
+  </si>
+  <si>
+    <t>己丑</t>
+  </si>
+  <si>
+    <t>庚寅</t>
+  </si>
+  <si>
+    <t>癸卯</t>
   </si>
 </sst>
 </file>
@@ -490,8 +605,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -517,46 +632,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,69 +643,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -647,6 +661,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -655,7 +755,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,37 +811,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,139 +985,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,6 +1042,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -942,6 +1066,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -953,15 +1097,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,28 +1119,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,10 +1132,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,133 +1144,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1508,13 +1623,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.69166666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
@@ -1680,6 +1795,1275 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" s="1" customFormat="1" spans="1:15">
+      <c r="A4" s="1">
+        <v>301002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4102</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3102</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1102</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2102</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:15">
+      <c r="A5" s="1">
+        <v>301003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4103</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3103</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1103</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2103</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:15">
+      <c r="A6" s="1">
+        <v>301004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4104</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3104</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1104</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2104</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:15">
+      <c r="A7" s="1">
+        <v>301005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4105</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3105</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1105</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2105</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:15">
+      <c r="A8" s="1">
+        <v>301006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4106</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3106</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1106</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2106</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:15">
+      <c r="A9" s="1">
+        <v>301007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4107</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3107</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1107</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2107</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:15">
+      <c r="A10" s="1">
+        <v>301008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4108</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3108</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1108</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2108</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:15">
+      <c r="A11" s="1">
+        <v>301009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4109</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3109</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1109</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2109</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:15">
+      <c r="A12" s="1">
+        <v>301010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4110</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3110</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1110</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2110</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:15">
+      <c r="A13" s="1">
+        <v>301011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4101</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3101</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1101</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2101</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:15">
+      <c r="A14" s="1">
+        <v>301012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4102</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3102</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1102</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2102</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:15">
+      <c r="A15" s="1">
+        <v>301013</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4103</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3103</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1103</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2103</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:15">
+      <c r="A16" s="1">
+        <v>301014</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4104</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3104</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1104</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2104</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:15">
+      <c r="A17" s="1">
+        <v>301015</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4105</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3105</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1105</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2105</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:15">
+      <c r="A18" s="1">
+        <v>301016</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4106</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3106</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1106</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2106</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:15">
+      <c r="A19" s="1">
+        <v>301017</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4107</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3107</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1107</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2107</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:15">
+      <c r="A20" s="1">
+        <v>301018</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>18</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4108</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3108</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1108</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2108</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:15">
+      <c r="A21" s="1">
+        <v>301019</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>19</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4109</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3109</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1109</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2109</v>
+      </c>
+      <c r="K21" s="1">
+        <v>4</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:15">
+      <c r="A22" s="1">
+        <v>301020</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>20</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4110</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3110</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1110</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2110</v>
+      </c>
+      <c r="K22" s="1">
+        <v>5</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:15">
+      <c r="A23" s="1">
+        <v>301021</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>21</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4101</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3101</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1101</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2101</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:15">
+      <c r="A24" s="1">
+        <v>301022</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>22</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4102</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3102</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1102</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2102</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:15">
+      <c r="A25" s="1">
+        <v>301023</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>23</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4103</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3103</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1103</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2103</v>
+      </c>
+      <c r="K25" s="1">
+        <v>3</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:15">
+      <c r="A26" s="1">
+        <v>301024</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>24</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4104</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3104</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1104</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2104</v>
+      </c>
+      <c r="K26" s="1">
+        <v>4</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:15">
+      <c r="A27" s="1">
+        <v>301025</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4105</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3105</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1105</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2105</v>
+      </c>
+      <c r="K27" s="1">
+        <v>5</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:15">
+      <c r="A28" s="1">
+        <v>301026</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>26</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4106</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3106</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1106</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2106</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:15">
+      <c r="A29" s="1">
+        <v>301027</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>27</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4107</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3107</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1107</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2107</v>
+      </c>
+      <c r="K29" s="1">
+        <v>2</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:15">
+      <c r="A30" s="1">
+        <v>301028</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>28</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4108</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3108</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1108</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2108</v>
+      </c>
+      <c r="K30" s="1">
+        <v>3</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/common/Card.xlsx
+++ b/common/Card.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>序号</t>
   </si>
@@ -22,21 +22,47 @@
     <t>名称_cn</t>
   </si>
   <si>
-    <t>特长
-1=聪慧
+    <t>获取途径
+展示</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">特长
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1=聪慧
 2=才华
 3=魅力
 4=威严
 5=全能</t>
-  </si>
-  <si>
-    <t>获取途径
-1=主线剧情
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取途径
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1=主线剧情
 2=支线剧情
 3=充值奖励
 4=冲榜奖励
 5=积分兑换
 6=限时奖励</t>
+    </r>
   </si>
   <si>
     <r>
@@ -165,14 +191,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">speciality_type </t>
+      <t xml:space="preserve">channel_intro </t>
     </r>
     <r>
       <rPr>
@@ -183,7 +202,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>array</t>
+      <t>string</t>
     </r>
   </si>
   <si>
@@ -195,7 +214,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">gain_way </t>
+      <t xml:space="preserve">speciality_type </t>
     </r>
     <r>
       <rPr>
@@ -206,7 +225,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>int</t>
+      <t>array</t>
     </r>
   </si>
   <si>
@@ -218,7 +237,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">card_quality </t>
+      <t xml:space="preserve">gain_way </t>
     </r>
     <r>
       <rPr>
@@ -241,7 +260,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">portray_id </t>
+      <t xml:space="preserve">card_quality </t>
     </r>
     <r>
       <rPr>
@@ -264,7 +283,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">maje </t>
+      <t xml:space="preserve">portray_id </t>
     </r>
     <r>
       <rPr>
@@ -275,7 +294,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>array</t>
+      <t>int</t>
     </r>
   </si>
   <si>
@@ -287,7 +306,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">charm </t>
+      <t xml:space="preserve">maje </t>
     </r>
     <r>
       <rPr>
@@ -310,7 +329,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">intel </t>
+      <t xml:space="preserve">charm </t>
     </r>
     <r>
       <rPr>
@@ -333,7 +352,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">tale </t>
+      <t xml:space="preserve">intel </t>
     </r>
     <r>
       <rPr>
@@ -356,7 +375,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">attribute_friend_id </t>
+      <t xml:space="preserve">tale </t>
     </r>
     <r>
       <rPr>
@@ -367,7 +386,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>int</t>
+      <t>array</t>
     </r>
   </si>
   <si>
@@ -379,7 +398,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">card_group_id </t>
+      <t xml:space="preserve">attribute_friend_id </t>
     </r>
     <r>
       <rPr>
@@ -402,7 +421,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">skill_id_1 </t>
+      <t xml:space="preserve">card_group_id </t>
     </r>
     <r>
       <rPr>
@@ -425,7 +444,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">skill_id_2 </t>
+      <t xml:space="preserve">skill_id_1 </t>
     </r>
     <r>
       <rPr>
@@ -448,7 +467,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">piece_id </t>
+      <t xml:space="preserve">skill_id_2 </t>
     </r>
     <r>
       <rPr>
@@ -471,7 +490,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">piece_num </t>
+      <t xml:space="preserve">piece_id </t>
     </r>
     <r>
       <rPr>
@@ -486,10 +505,36 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">piece_num </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
     <t>对镜梳妆</t>
   </si>
   <si>
     <t>1,2</t>
+  </si>
+  <si>
+    <t>4101</t>
   </si>
   <si>
     <t>乙丑</t>
@@ -605,10 +650,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -633,13 +678,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -647,14 +685,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,8 +721,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,8 +737,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,10 +776,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -721,33 +791,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,21 +816,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,7 +856,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,25 +1018,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,139 +1030,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,6 +1096,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1062,41 +1127,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,8 +1149,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1132,10 +1177,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1144,133 +1189,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1623,29 +1668,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.69166666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="1" customWidth="1"/>
-    <col min="7" max="10" width="10.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5" style="1" customWidth="1"/>
-    <col min="13" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="11.125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="1" customWidth="1"/>
+    <col min="8" max="11" width="10.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="1" customWidth="1"/>
+    <col min="14" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="11.125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="114.75" spans="1:16">
+    <row r="1" ht="114.75" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1664,7 +1710,7 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -1676,112 +1722,115 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" ht="32.25" spans="1:16">
+    <row r="2" ht="32.25" spans="1:17">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="H2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="K2" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="L2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>301001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
-        <v>4101</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2">
         <v>3101</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>1101</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>2101</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
       <c r="M3" s="1">
         <v>0</v>
       </c>
@@ -1794,44 +1843,44 @@
       <c r="P3" s="1">
         <v>0</v>
       </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:15">
+    <row r="4" s="1" customFormat="1" spans="1:16">
       <c r="A4" s="1">
         <v>301002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>4102</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>3102</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>1102</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>2102</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
@@ -1841,44 +1890,44 @@
       <c r="O4" s="1">
         <v>0</v>
       </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
+    <row r="5" s="1" customFormat="1" spans="1:16">
       <c r="A5" s="1">
         <v>301003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>4103</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>3103</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>1103</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>2103</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
       <c r="M5" s="1">
         <v>0</v>
       </c>
@@ -1888,44 +1937,44 @@
       <c r="O5" s="1">
         <v>0</v>
       </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:15">
+    <row r="6" s="1" customFormat="1" spans="1:16">
       <c r="A6" s="1">
         <v>301004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>4104</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>3104</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>1104</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>2104</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>4</v>
       </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
       <c r="M6" s="1">
         <v>0</v>
       </c>
@@ -1935,44 +1984,44 @@
       <c r="O6" s="1">
         <v>0</v>
       </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:15">
+    <row r="7" s="1" customFormat="1" spans="1:16">
       <c r="A7" s="1">
         <v>301005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>4105</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>3105</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>1105</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>2105</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
@@ -1982,44 +2031,44 @@
       <c r="O7" s="1">
         <v>0</v>
       </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:15">
+    <row r="8" s="1" customFormat="1" spans="1:16">
       <c r="A8" s="1">
         <v>301006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1">
         <v>6</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>4106</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>3106</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>1106</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>2106</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
       <c r="M8" s="1">
         <v>0</v>
       </c>
@@ -2029,44 +2078,44 @@
       <c r="O8" s="1">
         <v>0</v>
       </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:15">
+    <row r="9" s="1" customFormat="1" spans="1:16">
       <c r="A9" s="1">
         <v>301007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>7</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>4107</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>3107</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>1107</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>2107</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>2</v>
       </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
@@ -2076,44 +2125,44 @@
       <c r="O9" s="1">
         <v>0</v>
       </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:15">
+    <row r="10" s="1" customFormat="1" spans="1:16">
       <c r="A10" s="1">
         <v>301008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="1">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>4108</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>3108</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>1108</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>2108</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>3</v>
       </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
       <c r="M10" s="1">
         <v>0</v>
       </c>
@@ -2123,44 +2172,44 @@
       <c r="O10" s="1">
         <v>0</v>
       </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:15">
+    <row r="11" s="1" customFormat="1" spans="1:16">
       <c r="A11" s="1">
         <v>301009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="1">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>9</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>4109</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>3109</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>1109</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>2109</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>4</v>
       </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
       <c r="M11" s="1">
         <v>0</v>
       </c>
@@ -2170,44 +2219,44 @@
       <c r="O11" s="1">
         <v>0</v>
       </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:15">
+    <row r="12" s="1" customFormat="1" spans="1:16">
       <c r="A12" s="1">
         <v>301010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4</v>
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
       </c>
       <c r="F12" s="1">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>4110</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>3110</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>1110</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>2110</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>5</v>
       </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
       <c r="M12" s="1">
         <v>0</v>
       </c>
@@ -2217,44 +2266,44 @@
       <c r="O12" s="1">
         <v>0</v>
       </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:15">
+    <row r="13" s="1" customFormat="1" spans="1:16">
       <c r="A13" s="1">
         <v>301011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="1">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1">
         <v>5</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>11</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>4101</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>3101</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>1101</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>2101</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>1</v>
       </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
       <c r="M13" s="1">
         <v>0</v>
       </c>
@@ -2264,44 +2313,44 @@
       <c r="O13" s="1">
         <v>0</v>
       </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:15">
+    <row r="14" s="1" customFormat="1" spans="1:16">
       <c r="A14" s="1">
         <v>301012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="1">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1">
         <v>6</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>3</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>4102</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>3102</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>1102</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>2102</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>2</v>
       </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
@@ -2311,44 +2360,44 @@
       <c r="O14" s="1">
         <v>0</v>
       </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:15">
+    <row r="15" s="1" customFormat="1" spans="1:16">
       <c r="A15" s="1">
         <v>301013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
         <v>13</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>4103</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>3103</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>1103</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>2103</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>3</v>
       </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
       <c r="M15" s="1">
         <v>0</v>
       </c>
@@ -2358,44 +2407,44 @@
       <c r="O15" s="1">
         <v>0</v>
       </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:15">
+    <row r="16" s="1" customFormat="1" spans="1:16">
       <c r="A16" s="1">
         <v>301014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="1">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>14</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>4104</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>3104</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>1104</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>2104</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>4</v>
       </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
       <c r="M16" s="1">
         <v>0</v>
       </c>
@@ -2405,44 +2454,44 @@
       <c r="O16" s="1">
         <v>0</v>
       </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:15">
+    <row r="17" s="1" customFormat="1" spans="1:16">
       <c r="A17" s="1">
         <v>301015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="1">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1">
         <v>3</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>4</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>15</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>4105</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>3105</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>1105</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>2105</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>5</v>
       </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
       <c r="M17" s="1">
         <v>0</v>
       </c>
@@ -2452,44 +2501,44 @@
       <c r="O17" s="1">
         <v>0</v>
       </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:15">
+    <row r="18" s="1" customFormat="1" spans="1:16">
       <c r="A18" s="1">
         <v>301016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="1">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>4</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>2</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>16</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>4106</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>3106</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>1106</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>2106</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>1</v>
       </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
       <c r="M18" s="1">
         <v>0</v>
       </c>
@@ -2499,44 +2548,44 @@
       <c r="O18" s="1">
         <v>0</v>
       </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:15">
+    <row r="19" s="1" customFormat="1" spans="1:16">
       <c r="A19" s="1">
         <v>301017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="1">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>5</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>3</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>17</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>4107</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>3107</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>1107</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>2107</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>2</v>
       </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
       <c r="M19" s="1">
         <v>0</v>
       </c>
@@ -2546,44 +2595,44 @@
       <c r="O19" s="1">
         <v>0</v>
       </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:15">
+    <row r="20" s="1" customFormat="1" spans="1:16">
       <c r="A20" s="1">
         <v>301018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="1">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1">
         <v>3</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>6</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>18</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>4108</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>3108</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>1108</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>2108</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>3</v>
       </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
       <c r="M20" s="1">
         <v>0</v>
       </c>
@@ -2593,44 +2642,44 @@
       <c r="O20" s="1">
         <v>0</v>
       </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:15">
+    <row r="21" s="1" customFormat="1" spans="1:16">
       <c r="A21" s="1">
         <v>301019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="1">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1">
         <v>4</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>5</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>19</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>4109</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>3109</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>1109</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>2109</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>4</v>
       </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
       <c r="M21" s="1">
         <v>0</v>
       </c>
@@ -2640,44 +2689,44 @@
       <c r="O21" s="1">
         <v>0</v>
       </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:15">
+    <row r="22" s="1" customFormat="1" spans="1:16">
       <c r="A22" s="1">
         <v>301020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="1">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1">
         <v>5</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>2</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>4</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>20</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>4110</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>3110</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>1110</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <v>2110</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>5</v>
       </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
       <c r="M22" s="1">
         <v>0</v>
       </c>
@@ -2687,44 +2736,44 @@
       <c r="O22" s="1">
         <v>0</v>
       </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:15">
+    <row r="23" s="1" customFormat="1" spans="1:16">
       <c r="A23" s="1">
         <v>301021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="1">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="1">
         <v>3</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>2</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>21</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>4101</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>3101</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>1101</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>2101</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>1</v>
       </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
       <c r="M23" s="1">
         <v>0</v>
       </c>
@@ -2734,44 +2783,44 @@
       <c r="O23" s="1">
         <v>0</v>
       </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:15">
+    <row r="24" s="1" customFormat="1" spans="1:16">
       <c r="A24" s="1">
         <v>301022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="1">
+        <v>66</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1">
         <v>4</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>3</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>22</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>4102</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>3102</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>1102</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>2102</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>2</v>
       </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
       <c r="M24" s="1">
         <v>0</v>
       </c>
@@ -2781,44 +2830,44 @@
       <c r="O24" s="1">
         <v>0</v>
       </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:15">
+    <row r="25" s="1" customFormat="1" spans="1:16">
       <c r="A25" s="1">
         <v>301023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="1">
+        <v>67</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="1">
         <v>5</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>23</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>4103</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>3103</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>1103</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <v>2103</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <v>3</v>
       </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
       <c r="M25" s="1">
         <v>0</v>
       </c>
@@ -2828,44 +2877,44 @@
       <c r="O25" s="1">
         <v>0</v>
       </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:15">
+    <row r="26" s="1" customFormat="1" spans="1:16">
       <c r="A26" s="1">
         <v>301024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="1">
+        <v>68</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="1">
         <v>6</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>5</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>24</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>4104</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>3104</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>1104</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <v>2104</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>4</v>
       </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
       <c r="M26" s="1">
         <v>0</v>
       </c>
@@ -2875,44 +2924,44 @@
       <c r="O26" s="1">
         <v>0</v>
       </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:15">
+    <row r="27" s="1" customFormat="1" spans="1:16">
       <c r="A27" s="1">
         <v>301025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="1">
+        <v>69</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>4</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>25</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>4105</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>3105</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>1105</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <v>2105</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <v>5</v>
       </c>
-      <c r="L27" s="1">
-        <v>0</v>
-      </c>
       <c r="M27" s="1">
         <v>0</v>
       </c>
@@ -2922,44 +2971,44 @@
       <c r="O27" s="1">
         <v>0</v>
       </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:15">
+    <row r="28" s="1" customFormat="1" spans="1:16">
       <c r="A28" s="1">
         <v>301026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
       </c>
       <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
         <v>26</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>4106</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>3106</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>1106</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <v>2106</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <v>1</v>
       </c>
-      <c r="L28" s="1">
-        <v>0</v>
-      </c>
       <c r="M28" s="1">
         <v>0</v>
       </c>
@@ -2969,44 +3018,44 @@
       <c r="O28" s="1">
         <v>0</v>
       </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:15">
+    <row r="29" s="1" customFormat="1" spans="1:16">
       <c r="A29" s="1">
         <v>301027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3</v>
+        <v>71</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
       </c>
       <c r="F29" s="1">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1">
         <v>27</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>4107</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>3107</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>1107</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <v>2107</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <v>2</v>
       </c>
-      <c r="L29" s="1">
-        <v>0</v>
-      </c>
       <c r="M29" s="1">
         <v>0</v>
       </c>
@@ -3016,44 +3065,44 @@
       <c r="O29" s="1">
         <v>0</v>
       </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:15">
+    <row r="30" s="1" customFormat="1" spans="1:16">
       <c r="A30" s="1">
         <v>301028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="1">
+        <v>72</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="1">
         <v>4</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>28</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>4108</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>3108</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>1108</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <v>2108</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <v>3</v>
       </c>
-      <c r="L30" s="1">
-        <v>0</v>
-      </c>
       <c r="M30" s="1">
         <v>0</v>
       </c>
@@ -3061,6 +3110,9 @@
         <v>0</v>
       </c>
       <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
         <v>0</v>
       </c>
     </row>

--- a/common/Card.xlsx
+++ b/common/Card.xlsx
@@ -16,7 +16,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
-    <t>序号</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">序号
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3开头
+后2位为知交id右后3位为序号</t>
+    </r>
   </si>
   <si>
     <t>名称_cn</t>
@@ -27,6 +47,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">特长
 </t>
     </r>
@@ -46,6 +73,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">获取途径
 </t>
     </r>
@@ -191,6 +225,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">channel_intro </t>
     </r>
     <r>
@@ -650,10 +691,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -677,23 +718,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,28 +741,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -737,9 +749,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,17 +765,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -783,11 +823,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -799,23 +855,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,7 +897,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,19 +1029,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,145 +1071,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,6 +1113,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1090,43 +1164,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,9 +1187,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1177,10 +1218,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1189,19 +1230,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1210,112 +1251,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1671,7 +1712,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1879,7 +1920,7 @@
         <v>2102</v>
       </c>
       <c r="L4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1926,7 +1967,7 @@
         <v>2103</v>
       </c>
       <c r="L5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1973,7 +2014,7 @@
         <v>2104</v>
       </c>
       <c r="L6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2020,7 +2061,7 @@
         <v>2105</v>
       </c>
       <c r="L7" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2114,7 +2155,7 @@
         <v>2107</v>
       </c>
       <c r="L9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2161,7 +2202,7 @@
         <v>2108</v>
       </c>
       <c r="L10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2178,7 +2219,7 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:16">
       <c r="A11" s="1">
-        <v>301009</v>
+        <v>302001</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>46</v>
@@ -2208,7 +2249,7 @@
         <v>2109</v>
       </c>
       <c r="L11" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2225,7 +2266,7 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="1:16">
       <c r="A12" s="1">
-        <v>301010</v>
+        <v>302002</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>48</v>
@@ -2255,7 +2296,7 @@
         <v>2110</v>
       </c>
       <c r="L12" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2272,7 +2313,7 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:16">
       <c r="A13" s="1">
-        <v>301011</v>
+        <v>302003</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>50</v>
@@ -2302,7 +2343,7 @@
         <v>2101</v>
       </c>
       <c r="L13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2319,7 +2360,7 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="1:16">
       <c r="A14" s="1">
-        <v>301012</v>
+        <v>302004</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>52</v>
@@ -2366,7 +2407,7 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="1:16">
       <c r="A15" s="1">
-        <v>301013</v>
+        <v>302005</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>54</v>
@@ -2396,7 +2437,7 @@
         <v>2103</v>
       </c>
       <c r="L15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -2413,7 +2454,7 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="1:16">
       <c r="A16" s="1">
-        <v>301014</v>
+        <v>303001</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>56</v>
@@ -2443,7 +2484,7 @@
         <v>2104</v>
       </c>
       <c r="L16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -2460,7 +2501,7 @@
     </row>
     <row r="17" s="1" customFormat="1" spans="1:16">
       <c r="A17" s="1">
-        <v>301015</v>
+        <v>303002</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>58</v>
@@ -2490,7 +2531,7 @@
         <v>2105</v>
       </c>
       <c r="L17" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -2507,7 +2548,7 @@
     </row>
     <row r="18" s="1" customFormat="1" spans="1:16">
       <c r="A18" s="1">
-        <v>301016</v>
+        <v>303003</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>60</v>
@@ -2537,7 +2578,7 @@
         <v>2106</v>
       </c>
       <c r="L18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -2554,7 +2595,7 @@
     </row>
     <row r="19" s="1" customFormat="1" spans="1:16">
       <c r="A19" s="1">
-        <v>301017</v>
+        <v>303004</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>61</v>
@@ -2584,7 +2625,7 @@
         <v>2107</v>
       </c>
       <c r="L19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -2601,7 +2642,7 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="1:16">
       <c r="A20" s="1">
-        <v>301018</v>
+        <v>303005</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>62</v>
@@ -2648,7 +2689,7 @@
     </row>
     <row r="21" s="1" customFormat="1" spans="1:16">
       <c r="A21" s="1">
-        <v>301019</v>
+        <v>304001</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>63</v>
@@ -2695,7 +2736,7 @@
     </row>
     <row r="22" s="1" customFormat="1" spans="1:16">
       <c r="A22" s="1">
-        <v>301020</v>
+        <v>304002</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>64</v>
@@ -2725,7 +2766,7 @@
         <v>2110</v>
       </c>
       <c r="L22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -2742,7 +2783,7 @@
     </row>
     <row r="23" s="1" customFormat="1" spans="1:16">
       <c r="A23" s="1">
-        <v>301021</v>
+        <v>304003</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>65</v>
@@ -2772,7 +2813,7 @@
         <v>2101</v>
       </c>
       <c r="L23" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -2789,7 +2830,7 @@
     </row>
     <row r="24" s="1" customFormat="1" spans="1:16">
       <c r="A24" s="1">
-        <v>301022</v>
+        <v>304004</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>66</v>
@@ -2819,7 +2860,7 @@
         <v>2102</v>
       </c>
       <c r="L24" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -2836,7 +2877,7 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="1:16">
       <c r="A25" s="1">
-        <v>301023</v>
+        <v>304005</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>67</v>
@@ -2866,7 +2907,7 @@
         <v>2103</v>
       </c>
       <c r="L25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -2883,7 +2924,7 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="1:16">
       <c r="A26" s="1">
-        <v>301024</v>
+        <v>305001</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>68</v>
@@ -2913,7 +2954,7 @@
         <v>2104</v>
       </c>
       <c r="L26" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -2930,7 +2971,7 @@
     </row>
     <row r="27" s="1" customFormat="1" spans="1:16">
       <c r="A27" s="1">
-        <v>301025</v>
+        <v>305002</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>69</v>
@@ -2977,7 +3018,7 @@
     </row>
     <row r="28" s="1" customFormat="1" spans="1:16">
       <c r="A28" s="1">
-        <v>301026</v>
+        <v>305003</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>70</v>
@@ -3007,7 +3048,7 @@
         <v>2106</v>
       </c>
       <c r="L28" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -3024,7 +3065,7 @@
     </row>
     <row r="29" s="1" customFormat="1" spans="1:16">
       <c r="A29" s="1">
-        <v>301027</v>
+        <v>305004</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>71</v>
@@ -3054,7 +3095,7 @@
         <v>2107</v>
       </c>
       <c r="L29" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -3071,7 +3112,7 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="1:16">
       <c r="A30" s="1">
-        <v>301028</v>
+        <v>305005</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>72</v>
@@ -3101,7 +3142,7 @@
         <v>2108</v>
       </c>
       <c r="L30" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>

--- a/common/Card.xlsx
+++ b/common/Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="23535" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="112">
   <si>
     <t>序号</t>
   </si>
@@ -27,6 +27,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">特长
 </t>
     </r>
@@ -46,6 +53,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">获取途径
 </t>
     </r>
@@ -191,6 +205,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">channel_intro </t>
     </r>
     <r>
@@ -531,112 +552,229 @@
     <t>对镜梳妆</t>
   </si>
   <si>
+    <t>开场剧情</t>
+  </si>
+  <si>
+    <t>4205</t>
+  </si>
+  <si>
+    <t>3201</t>
+  </si>
+  <si>
+    <t>1304,1102</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>乙丑</t>
+  </si>
+  <si>
+    <t>绿瑶书信1</t>
+  </si>
+  <si>
+    <t>4202</t>
+  </si>
+  <si>
+    <t>3204</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>2403,2201</t>
+  </si>
+  <si>
+    <t>丙寅</t>
+  </si>
+  <si>
+    <t>绿瑶书信2</t>
+  </si>
+  <si>
+    <t>4301</t>
+  </si>
+  <si>
+    <t>3401,3502</t>
+  </si>
+  <si>
+    <t>丁卯</t>
+  </si>
+  <si>
+    <t>绿瑶书信3</t>
+  </si>
+  <si>
+    <t>4501,4404</t>
+  </si>
+  <si>
+    <t>2104,2105</t>
+  </si>
+  <si>
+    <t>戊辰</t>
+  </si>
+  <si>
+    <t>绿瑶书信4</t>
+  </si>
+  <si>
+    <t>4405</t>
+  </si>
+  <si>
+    <t>3301</t>
+  </si>
+  <si>
+    <t>1501,1402</t>
+  </si>
+  <si>
+    <t>己巳</t>
+  </si>
+  <si>
+    <t>绿瑶书信5</t>
+  </si>
+  <si>
+    <t>4204</t>
+  </si>
+  <si>
+    <t>3305</t>
+  </si>
+  <si>
+    <t>1302,1105</t>
+  </si>
+  <si>
+    <t>2601,2502,2201</t>
+  </si>
+  <si>
+    <t>庚午</t>
+  </si>
+  <si>
+    <t>绿瑶书信6</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>辛未</t>
+  </si>
+  <si>
+    <t>绿瑶书信7</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>壬申</t>
+  </si>
+  <si>
+    <t>绿瑶书信8</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>癸酉</t>
+  </si>
+  <si>
+    <t>绿瑶书信9</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>甲戌</t>
+  </si>
+  <si>
+    <t>绿瑶书信10</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>乙亥</t>
+  </si>
+  <si>
+    <t>绿瑶书信11</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>丙子</t>
+  </si>
+  <si>
+    <t>绿瑶书信12</t>
+  </si>
+  <si>
+    <t>1,2,4</t>
+  </si>
+  <si>
+    <t>丁丑</t>
+  </si>
+  <si>
+    <t>主角身份达到嫡女</t>
+  </si>
+  <si>
+    <t>1,3,4</t>
+  </si>
+  <si>
+    <t>戊寅</t>
+  </si>
+  <si>
+    <t>主角身份达到夫人</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>己卯</t>
+  </si>
+  <si>
+    <t>主角身份达到封诰</t>
+  </si>
+  <si>
+    <t>庚辰</t>
+  </si>
+  <si>
+    <t>卡池</t>
+  </si>
+  <si>
+    <t>辛巳</t>
+  </si>
+  <si>
+    <t>壬午</t>
+  </si>
+  <si>
+    <t>癸未</t>
+  </si>
+  <si>
+    <t>甲申</t>
+  </si>
+  <si>
     <t>1,2</t>
   </si>
   <si>
-    <t>4101</t>
-  </si>
-  <si>
-    <t>乙丑</t>
-  </si>
-  <si>
-    <t>丙寅</t>
-  </si>
-  <si>
-    <t>丁卯</t>
-  </si>
-  <si>
-    <t>戊辰</t>
-  </si>
-  <si>
-    <t>己巳</t>
-  </si>
-  <si>
-    <t>庚午</t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>辛未</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>壬申</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>癸酉</t>
-  </si>
-  <si>
-    <t>2,4</t>
-  </si>
-  <si>
-    <t>甲戌</t>
-  </si>
-  <si>
-    <t>3,4</t>
-  </si>
-  <si>
-    <t>乙亥</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>丙子</t>
-  </si>
-  <si>
-    <t>1,2,4</t>
-  </si>
-  <si>
-    <t>丁丑</t>
-  </si>
-  <si>
-    <t>1,3,4</t>
-  </si>
-  <si>
-    <t>戊寅</t>
-  </si>
-  <si>
-    <t>2,3,4</t>
-  </si>
-  <si>
-    <t>己卯</t>
-  </si>
-  <si>
-    <t>庚辰</t>
-  </si>
-  <si>
-    <t>辛巳</t>
-  </si>
-  <si>
-    <t>壬午</t>
-  </si>
-  <si>
-    <t>癸未</t>
-  </si>
-  <si>
-    <t>甲申</t>
-  </si>
-  <si>
     <t>乙酉</t>
   </si>
   <si>
     <t>丙戌</t>
   </si>
   <si>
+    <t>VIP3奖励</t>
+  </si>
+  <si>
     <t>丁亥</t>
   </si>
   <si>
+    <t>VIP4奖励</t>
+  </si>
+  <si>
     <t>戊子</t>
   </si>
   <si>
+    <t>VIP5奖励</t>
+  </si>
+  <si>
     <t>己丑</t>
+  </si>
+  <si>
+    <t>碎片合成</t>
   </si>
   <si>
     <t>庚寅</t>
@@ -650,10 +788,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -677,6 +815,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -685,7 +838,91 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,105 +945,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -815,7 +953,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,13 +994,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,43 +1036,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,7 +1060,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,43 +1144,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,49 +1162,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,31 +1225,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,17 +1270,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1155,17 +1297,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1177,10 +1315,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1189,133 +1327,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1666,12 +1804,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1804,14 +1942,17 @@
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1819,14 +1960,14 @@
       <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="2">
-        <v>3101</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1101</v>
-      </c>
-      <c r="K3" s="2">
-        <v>2101</v>
+      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -1841,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>110001</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:16">
@@ -1852,7 +1993,10 @@
         <v>301002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -1861,22 +2005,22 @@
         <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="1">
-        <v>4102</v>
-      </c>
-      <c r="I4" s="1">
-        <v>3102</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1102</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2102</v>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="L4" s="1">
         <v>2</v>
@@ -1899,13 +2043,16 @@
         <v>301003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1913,16 +2060,16 @@
       <c r="G5" s="1">
         <v>3</v>
       </c>
-      <c r="H5" s="1">
-        <v>4103</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3103</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="H5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="2">
         <v>1103</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>2103</v>
       </c>
       <c r="L5" s="1">
@@ -1946,31 +2093,34 @@
         <v>301004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
       </c>
-      <c r="H6" s="1">
-        <v>4104</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="2">
         <v>3104</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>1104</v>
       </c>
-      <c r="K6" s="1">
-        <v>2104</v>
+      <c r="K6" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="L6" s="1">
         <v>4</v>
@@ -1993,31 +2143,34 @@
         <v>301005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="1">
-        <v>4105</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3105</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1105</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2105</v>
+      <c r="H7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="L7" s="1">
         <v>5</v>
@@ -2035,18 +2188,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:16">
+    <row r="8" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A8" s="1">
         <v>301006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -2054,17 +2210,17 @@
       <c r="G8" s="1">
         <v>6</v>
       </c>
-      <c r="H8" s="1">
-        <v>4106</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3106</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1106</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2106</v>
+      <c r="H8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -2082,18 +2238,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:16">
+    <row r="9" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A9" s="1">
         <v>301007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -2101,17 +2260,17 @@
       <c r="G9" s="1">
         <v>7</v>
       </c>
-      <c r="H9" s="1">
-        <v>4107</v>
-      </c>
-      <c r="I9" s="1">
-        <v>3107</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1107</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2107</v>
+      <c r="H9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L9" s="1">
         <v>2</v>
@@ -2129,15 +2288,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:16">
+    <row r="10" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A10" s="1">
         <v>301008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -2148,17 +2310,17 @@
       <c r="G10" s="1">
         <v>8</v>
       </c>
-      <c r="H10" s="1">
-        <v>4108</v>
-      </c>
-      <c r="I10" s="1">
-        <v>3108</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1108</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2108</v>
+      <c r="H10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L10" s="1">
         <v>3</v>
@@ -2176,18 +2338,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:16">
+    <row r="11" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A11" s="1">
         <v>301009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
         <v>5</v>
@@ -2195,17 +2360,17 @@
       <c r="G11" s="1">
         <v>9</v>
       </c>
-      <c r="H11" s="1">
-        <v>4109</v>
-      </c>
-      <c r="I11" s="1">
-        <v>3109</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1109</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2109</v>
+      <c r="H11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L11" s="1">
         <v>4</v>
@@ -2223,18 +2388,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:16">
+    <row r="12" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A12" s="1">
         <v>301010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="E12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
@@ -2242,17 +2410,17 @@
       <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="1">
-        <v>4110</v>
-      </c>
-      <c r="I12" s="1">
-        <v>3110</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1110</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2110</v>
+      <c r="H12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L12" s="1">
         <v>5</v>
@@ -2270,18 +2438,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:16">
+    <row r="13" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A13" s="1">
         <v>301011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E13" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
@@ -2289,17 +2460,17 @@
       <c r="G13" s="1">
         <v>11</v>
       </c>
-      <c r="H13" s="1">
-        <v>4101</v>
-      </c>
-      <c r="I13" s="1">
-        <v>3101</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1101</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2101</v>
+      <c r="H13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
@@ -2317,18 +2488,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:16">
+    <row r="14" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A14" s="1">
         <v>301012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E14" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
@@ -2336,17 +2510,17 @@
       <c r="G14" s="1">
         <v>12</v>
       </c>
-      <c r="H14" s="1">
-        <v>4102</v>
-      </c>
-      <c r="I14" s="1">
-        <v>3102</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1102</v>
-      </c>
-      <c r="K14" s="1">
-        <v>2102</v>
+      <c r="H14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L14" s="1">
         <v>2</v>
@@ -2364,18 +2538,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:16">
+    <row r="15" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A15" s="1">
         <v>301013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -2383,17 +2560,17 @@
       <c r="G15" s="1">
         <v>13</v>
       </c>
-      <c r="H15" s="1">
-        <v>4103</v>
-      </c>
-      <c r="I15" s="1">
-        <v>3103</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1103</v>
-      </c>
-      <c r="K15" s="1">
-        <v>2103</v>
+      <c r="H15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L15" s="1">
         <v>3</v>
@@ -2411,15 +2588,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:16">
+    <row r="16" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A16" s="1">
         <v>301014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>86</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -2430,17 +2610,17 @@
       <c r="G16" s="1">
         <v>14</v>
       </c>
-      <c r="H16" s="1">
-        <v>4104</v>
-      </c>
-      <c r="I16" s="1">
-        <v>3104</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1104</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2104</v>
+      <c r="H16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L16" s="1">
         <v>4</v>
@@ -2458,15 +2638,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:16">
+    <row r="17" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A17" s="1">
         <v>301015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>89</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
@@ -2477,17 +2660,17 @@
       <c r="G17" s="1">
         <v>15</v>
       </c>
-      <c r="H17" s="1">
-        <v>4105</v>
-      </c>
-      <c r="I17" s="1">
-        <v>3105</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1105</v>
-      </c>
-      <c r="K17" s="1">
-        <v>2105</v>
+      <c r="H17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L17" s="1">
         <v>5</v>
@@ -2505,12 +2688,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:16">
+    <row r="18" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A18" s="1">
         <v>301016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -2524,17 +2710,17 @@
       <c r="G18" s="1">
         <v>16</v>
       </c>
-      <c r="H18" s="1">
-        <v>4106</v>
-      </c>
-      <c r="I18" s="1">
-        <v>3106</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1106</v>
-      </c>
-      <c r="K18" s="1">
-        <v>2106</v>
+      <c r="H18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L18" s="1">
         <v>1</v>
@@ -2552,12 +2738,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:16">
+    <row r="19" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A19" s="1">
         <v>301017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>94</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -2571,17 +2760,17 @@
       <c r="G19" s="1">
         <v>17</v>
       </c>
-      <c r="H19" s="1">
-        <v>4107</v>
-      </c>
-      <c r="I19" s="1">
-        <v>3107</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1107</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2107</v>
+      <c r="H19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L19" s="1">
         <v>2</v>
@@ -2599,12 +2788,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:16">
+    <row r="20" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A20" s="1">
         <v>301018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -2618,17 +2810,17 @@
       <c r="G20" s="1">
         <v>18</v>
       </c>
-      <c r="H20" s="1">
-        <v>4108</v>
-      </c>
-      <c r="I20" s="1">
-        <v>3108</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1108</v>
-      </c>
-      <c r="K20" s="1">
-        <v>2108</v>
+      <c r="H20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L20" s="1">
         <v>3</v>
@@ -2646,12 +2838,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:16">
+    <row r="21" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A21" s="1">
         <v>301019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>97</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D21" s="1">
         <v>4</v>
@@ -2665,17 +2860,17 @@
       <c r="G21" s="1">
         <v>19</v>
       </c>
-      <c r="H21" s="1">
-        <v>4109</v>
-      </c>
-      <c r="I21" s="1">
-        <v>3109</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1109</v>
-      </c>
-      <c r="K21" s="1">
-        <v>2109</v>
+      <c r="H21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L21" s="1">
         <v>4</v>
@@ -2693,12 +2888,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:16">
+    <row r="22" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A22" s="1">
         <v>301020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D22" s="1">
         <v>5</v>
@@ -2712,17 +2910,17 @@
       <c r="G22" s="1">
         <v>20</v>
       </c>
-      <c r="H22" s="1">
-        <v>4110</v>
-      </c>
-      <c r="I22" s="1">
-        <v>3110</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1110</v>
-      </c>
-      <c r="K22" s="1">
-        <v>2110</v>
+      <c r="H22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L22" s="1">
         <v>5</v>
@@ -2740,15 +2938,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:16">
+    <row r="23" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A23" s="1">
         <v>301021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>99</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -2759,17 +2960,17 @@
       <c r="G23" s="1">
         <v>21</v>
       </c>
-      <c r="H23" s="1">
-        <v>4101</v>
-      </c>
-      <c r="I23" s="1">
-        <v>3101</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1101</v>
-      </c>
-      <c r="K23" s="1">
-        <v>2101</v>
+      <c r="H23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L23" s="1">
         <v>1</v>
@@ -2787,15 +2988,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:16">
+    <row r="24" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A24" s="1">
         <v>301022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>101</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1">
         <v>4</v>
@@ -2806,17 +3010,17 @@
       <c r="G24" s="1">
         <v>22</v>
       </c>
-      <c r="H24" s="1">
-        <v>4102</v>
-      </c>
-      <c r="I24" s="1">
-        <v>3102</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1102</v>
-      </c>
-      <c r="K24" s="1">
-        <v>2102</v>
+      <c r="H24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L24" s="1">
         <v>2</v>
@@ -2834,15 +3038,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:16">
+    <row r="25" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A25" s="1">
         <v>301023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>102</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E25" s="1">
         <v>5</v>
@@ -2853,17 +3060,17 @@
       <c r="G25" s="1">
         <v>23</v>
       </c>
-      <c r="H25" s="1">
-        <v>4103</v>
-      </c>
-      <c r="I25" s="1">
-        <v>3103</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1103</v>
-      </c>
-      <c r="K25" s="1">
-        <v>2103</v>
+      <c r="H25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L25" s="1">
         <v>3</v>
@@ -2881,15 +3088,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:16">
+    <row r="26" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A26" s="1">
         <v>301024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>104</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E26" s="1">
         <v>6</v>
@@ -2900,17 +3110,17 @@
       <c r="G26" s="1">
         <v>24</v>
       </c>
-      <c r="H26" s="1">
-        <v>4104</v>
-      </c>
-      <c r="I26" s="1">
-        <v>3104</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1104</v>
-      </c>
-      <c r="K26" s="1">
-        <v>2104</v>
+      <c r="H26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L26" s="1">
         <v>4</v>
@@ -2928,15 +3138,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:16">
+    <row r="27" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A27" s="1">
         <v>301025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -2947,17 +3160,17 @@
       <c r="G27" s="1">
         <v>25</v>
       </c>
-      <c r="H27" s="1">
-        <v>4105</v>
-      </c>
-      <c r="I27" s="1">
-        <v>3105</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1105</v>
-      </c>
-      <c r="K27" s="1">
-        <v>2105</v>
+      <c r="H27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L27" s="1">
         <v>5</v>
@@ -2975,15 +3188,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:16">
+    <row r="28" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A28" s="1">
         <v>301026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>108</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -2994,17 +3210,17 @@
       <c r="G28" s="1">
         <v>26</v>
       </c>
-      <c r="H28" s="1">
-        <v>4106</v>
-      </c>
-      <c r="I28" s="1">
-        <v>3106</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1106</v>
-      </c>
-      <c r="K28" s="1">
-        <v>2106</v>
+      <c r="H28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L28" s="1">
         <v>1</v>
@@ -3022,15 +3238,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:16">
+    <row r="29" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A29" s="1">
         <v>301027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -3041,17 +3260,17 @@
       <c r="G29" s="1">
         <v>27</v>
       </c>
-      <c r="H29" s="1">
-        <v>4107</v>
-      </c>
-      <c r="I29" s="1">
-        <v>3107</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1107</v>
-      </c>
-      <c r="K29" s="1">
-        <v>2107</v>
+      <c r="H29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L29" s="1">
         <v>2</v>
@@ -3069,15 +3288,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:16">
+    <row r="30" s="1" customFormat="1" ht="33" spans="1:16">
       <c r="A30" s="1">
         <v>301028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>111</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E30" s="1">
         <v>4</v>
@@ -3088,17 +3310,17 @@
       <c r="G30" s="1">
         <v>28</v>
       </c>
-      <c r="H30" s="1">
-        <v>4108</v>
-      </c>
-      <c r="I30" s="1">
-        <v>3108</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1108</v>
-      </c>
-      <c r="K30" s="1">
-        <v>2108</v>
+      <c r="H30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L30" s="1">
         <v>3</v>

--- a/common/Card.xlsx
+++ b/common/Card.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="142">
   <si>
     <t>序号</t>
   </si>
@@ -26,14 +26,10 @@
 展示</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
+    <t>卡牌描述</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">特长
 </t>
     </r>
@@ -53,13 +49,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">获取途径
 </t>
     </r>
@@ -106,7 +95,8 @@
     </r>
   </si>
   <si>
-    <t>立绘id</t>
+    <t>立绘id
+关联到RolePortray</t>
   </si>
   <si>
     <t>威严资质组</t>
@@ -205,13 +195,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">channel_intro </t>
     </r>
     <r>
@@ -228,14 +211,8 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">speciality_type </t>
+      <t xml:space="preserve">description
+</t>
     </r>
     <r>
       <rPr>
@@ -246,7 +223,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>array</t>
+      <t>string</t>
     </r>
   </si>
   <si>
@@ -258,7 +235,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">gain_way </t>
+      <t xml:space="preserve">speciality_type </t>
     </r>
     <r>
       <rPr>
@@ -269,7 +246,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>int</t>
+      <t>array</t>
     </r>
   </si>
   <si>
@@ -281,7 +258,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">card_quality </t>
+      <t xml:space="preserve">gain_way </t>
     </r>
     <r>
       <rPr>
@@ -304,7 +281,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">portray_id </t>
+      <t xml:space="preserve">card_quality </t>
     </r>
     <r>
       <rPr>
@@ -327,7 +304,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">maje </t>
+      <t xml:space="preserve">portray_id </t>
     </r>
     <r>
       <rPr>
@@ -338,7 +315,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>array</t>
+      <t>int</t>
     </r>
   </si>
   <si>
@@ -350,7 +327,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">charm </t>
+      <t xml:space="preserve">maje </t>
     </r>
     <r>
       <rPr>
@@ -373,7 +350,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">intel </t>
+      <t xml:space="preserve">charm </t>
     </r>
     <r>
       <rPr>
@@ -396,7 +373,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">tale </t>
+      <t xml:space="preserve">intel </t>
     </r>
     <r>
       <rPr>
@@ -419,7 +396,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">attribute_friend_id </t>
+      <t xml:space="preserve">tale </t>
     </r>
     <r>
       <rPr>
@@ -430,7 +407,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>int</t>
+      <t>array</t>
     </r>
   </si>
   <si>
@@ -442,7 +419,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">card_group_id </t>
+      <t xml:space="preserve">attribute_friend_id </t>
     </r>
     <r>
       <rPr>
@@ -465,7 +442,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">skill_id_1 </t>
+      <t xml:space="preserve">card_group_id </t>
     </r>
     <r>
       <rPr>
@@ -488,7 +465,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">skill_id_2 </t>
+      <t xml:space="preserve">skill_id_1 </t>
     </r>
     <r>
       <rPr>
@@ -511,7 +488,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">piece_id </t>
+      <t xml:space="preserve">skill_id_2 </t>
     </r>
     <r>
       <rPr>
@@ -534,7 +511,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">piece_num </t>
+      <t xml:space="preserve">piece_id </t>
     </r>
     <r>
       <rPr>
@@ -549,12 +526,38 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">piece_num </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
     <t>对镜梳妆</t>
   </si>
   <si>
     <t>开场剧情</t>
   </si>
   <si>
+    <t>照镜晓月前</t>
+  </si>
+  <si>
     <t>4205</t>
   </si>
   <si>
@@ -573,6 +576,9 @@
     <t>绿瑶书信1</t>
   </si>
   <si>
+    <t>暮色凝香沁人</t>
+  </si>
+  <si>
     <t>4202</t>
   </si>
   <si>
@@ -591,6 +597,9 @@
     <t>绿瑶书信2</t>
   </si>
   <si>
+    <t>小姐小心</t>
+  </si>
+  <si>
     <t>4301</t>
   </si>
   <si>
@@ -603,6 +612,9 @@
     <t>绿瑶书信3</t>
   </si>
   <si>
+    <t>忽闻水上琵琶声</t>
+  </si>
+  <si>
     <t>4501,4404</t>
   </si>
   <si>
@@ -615,6 +627,9 @@
     <t>绿瑶书信4</t>
   </si>
   <si>
+    <t>寻声暗问弹者谁</t>
+  </si>
+  <si>
     <t>4405</t>
   </si>
   <si>
@@ -630,6 +645,9 @@
     <t>绿瑶书信5</t>
   </si>
   <si>
+    <t>床前明月光</t>
+  </si>
+  <si>
     <t>4204</t>
   </si>
   <si>
@@ -648,6 +666,9 @@
     <t>绿瑶书信6</t>
   </si>
   <si>
+    <t>疑是地上霜</t>
+  </si>
+  <si>
     <t>1,3</t>
   </si>
   <si>
@@ -657,6 +678,9 @@
     <t>绿瑶书信7</t>
   </si>
   <si>
+    <t>举头望明月</t>
+  </si>
+  <si>
     <t>1,4</t>
   </si>
   <si>
@@ -666,6 +690,9 @@
     <t>绿瑶书信8</t>
   </si>
   <si>
+    <t>低头思故乡</t>
+  </si>
+  <si>
     <t>2,3</t>
   </si>
   <si>
@@ -675,6 +702,9 @@
     <t>绿瑶书信9</t>
   </si>
   <si>
+    <t>蚕丛及鱼凫</t>
+  </si>
+  <si>
     <t>2,4</t>
   </si>
   <si>
@@ -684,6 +714,9 @@
     <t>绿瑶书信10</t>
   </si>
   <si>
+    <t>开国何茫然</t>
+  </si>
+  <si>
     <t>3,4</t>
   </si>
   <si>
@@ -693,6 +726,9 @@
     <t>绿瑶书信11</t>
   </si>
   <si>
+    <t>尔来四万八千岁</t>
+  </si>
+  <si>
     <t>1,2,3</t>
   </si>
   <si>
@@ -702,6 +738,9 @@
     <t>绿瑶书信12</t>
   </si>
   <si>
+    <t>不与秦塞通人烟</t>
+  </si>
+  <si>
     <t>1,2,4</t>
   </si>
   <si>
@@ -711,6 +750,9 @@
     <t>主角身份达到嫡女</t>
   </si>
   <si>
+    <t>西当太白有鸟道</t>
+  </si>
+  <si>
     <t>1,3,4</t>
   </si>
   <si>
@@ -720,6 +762,9 @@
     <t>主角身份达到夫人</t>
   </si>
   <si>
+    <t>可以横绝峨眉巅</t>
+  </si>
+  <si>
     <t>2,3,4</t>
   </si>
   <si>
@@ -729,58 +774,97 @@
     <t>主角身份达到封诰</t>
   </si>
   <si>
+    <t>地崩山摧壮士死</t>
+  </si>
+  <si>
     <t>庚辰</t>
   </si>
   <si>
     <t>卡池</t>
   </si>
   <si>
+    <t>啊我的小姐姐</t>
+  </si>
+  <si>
     <t>辛巳</t>
   </si>
   <si>
+    <t>我好喜欢你啊</t>
+  </si>
+  <si>
     <t>壬午</t>
   </si>
   <si>
+    <t>你是最可爱的</t>
+  </si>
+  <si>
     <t>癸未</t>
   </si>
   <si>
+    <t>这黛色如月夜</t>
+  </si>
+  <si>
     <t>甲申</t>
   </si>
   <si>
+    <t>褐瞳</t>
+  </si>
+  <si>
     <t>1,2</t>
   </si>
   <si>
     <t>乙酉</t>
   </si>
   <si>
+    <t>朱砂痣</t>
+  </si>
+  <si>
     <t>丙戌</t>
   </si>
   <si>
     <t>VIP3奖励</t>
   </si>
   <si>
+    <t>浅草寺</t>
+  </si>
+  <si>
     <t>丁亥</t>
   </si>
   <si>
     <t>VIP4奖励</t>
   </si>
   <si>
+    <t>气蒸云梦泽</t>
+  </si>
+  <si>
     <t>戊子</t>
   </si>
   <si>
     <t>VIP5奖励</t>
   </si>
   <si>
+    <t>波撼岳阳城</t>
+  </si>
+  <si>
     <t>己丑</t>
   </si>
   <si>
     <t>碎片合成</t>
   </si>
   <si>
+    <t>翩若惊鸿</t>
+  </si>
+  <si>
     <t>庚寅</t>
   </si>
   <si>
+    <t>九阴真</t>
+  </si>
+  <si>
     <t>癸卯</t>
+  </si>
+  <si>
+    <t>酌酒</t>
   </si>
 </sst>
 </file>
@@ -790,8 +874,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -815,6 +899,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -824,7 +923,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,83 +945,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,7 +975,45 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -952,10 +1028,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -994,7 +1078,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,7 +1096,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,13 +1120,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,19 +1162,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,37 +1180,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,19 +1222,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,37 +1252,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,6 +1294,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1221,21 +1316,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1279,11 +1359,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1299,10 +1385,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1315,10 +1399,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1327,133 +1411,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1470,16 +1554,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1806,30 +1890,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.69166666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="1" customWidth="1"/>
-    <col min="8" max="11" width="10.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5" style="1" customWidth="1"/>
-    <col min="14" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="11.125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="17.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.25" style="1" customWidth="1"/>
+    <col min="9" max="12" width="10.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="1" customWidth="1"/>
+    <col min="15" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="11.125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="114.75" spans="1:17">
+    <row r="1" ht="114.75" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1851,102 +1934,108 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" ht="32.25" spans="1:17">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" ht="32.25" spans="1:18">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="Q2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>301001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1957,24 +2046,24 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>36</v>
+      <c r="H3" s="1">
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="1">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="1">
         <v>1</v>
       </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
       <c r="N3" s="1">
         <v>0</v>
       </c>
@@ -1982,52 +2071,55 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
         <v>110001</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:16">
+    <row r="4" s="1" customFormat="1" spans="1:17">
       <c r="A4" s="1">
         <v>301002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
       <c r="N4" s="1">
         <v>0</v>
       </c>
@@ -2037,47 +2129,50 @@
       <c r="P4" s="1">
         <v>0</v>
       </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:16">
+    <row r="5" s="1" customFormat="1" spans="1:17">
       <c r="A5" s="1">
         <v>301003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="1">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1103</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2103</v>
+      </c>
+      <c r="M5" s="1">
         <v>3</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1103</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2103</v>
-      </c>
-      <c r="L5" s="1">
-        <v>3</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
       <c r="N5" s="1">
         <v>0</v>
       </c>
@@ -2087,47 +2182,50 @@
       <c r="P5" s="1">
         <v>0</v>
       </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:16">
+    <row r="6" s="1" customFormat="1" spans="1:17">
       <c r="A6" s="1">
         <v>301004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="1">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1">
         <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3104</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1104</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="1">
         <v>4</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="2">
-        <v>3104</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1104</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="1">
-        <v>4</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
       <c r="N6" s="1">
         <v>0</v>
       </c>
@@ -2137,47 +2235,50 @@
       <c r="P6" s="1">
         <v>0</v>
       </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:16">
+    <row r="7" s="1" customFormat="1" spans="1:17">
       <c r="A7" s="1">
         <v>301005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="1">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1">
         <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
       </c>
       <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="1">
-        <v>5</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
       <c r="N7" s="1">
         <v>0</v>
       </c>
@@ -2187,19 +2288,22 @@
       <c r="P7" s="1">
         <v>0</v>
       </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="8" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A8" s="1">
         <v>301006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -2208,26 +2312,26 @@
         <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>6</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>24</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="1">
+        <v>71</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
       <c r="N8" s="1">
         <v>0</v>
       </c>
@@ -2237,47 +2341,50 @@
       <c r="P8" s="1">
         <v>0</v>
       </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="9" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A9" s="1">
         <v>301007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="1">
+        <v>75</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>3</v>
       </c>
-      <c r="G9" s="1">
-        <v>7</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>61</v>
+      <c r="H9" s="1">
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="1">
+        <v>71</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="1">
         <v>2</v>
       </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
       <c r="N9" s="1">
         <v>0</v>
       </c>
@@ -2287,47 +2394,50 @@
       <c r="P9" s="1">
         <v>0</v>
       </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="10" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A10" s="1">
         <v>301008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="1">
+        <v>71</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="1">
         <v>3</v>
       </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
       <c r="N10" s="1">
         <v>0</v>
       </c>
@@ -2337,47 +2447,50 @@
       <c r="P10" s="1">
         <v>0</v>
       </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="11" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A11" s="1">
         <v>301009</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="L11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1">
-        <v>9</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>4</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
       <c r="N11" s="1">
         <v>0</v>
       </c>
@@ -2387,47 +2500,50 @@
       <c r="P11" s="1">
         <v>0</v>
       </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="12" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A12" s="1">
         <v>301010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="1">
+        <v>87</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>4</v>
       </c>
-      <c r="G12" s="1">
-        <v>10</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>61</v>
+      <c r="H12" s="1">
+        <v>24</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="1">
+        <v>71</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="1">
         <v>5</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
       <c r="N12" s="1">
         <v>0</v>
       </c>
@@ -2437,47 +2553,50 @@
       <c r="P12" s="1">
         <v>0</v>
       </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="13" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A13" s="1">
         <v>301011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
+        <v>91</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
       <c r="G13" s="1">
-        <v>11</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>24</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="1">
+        <v>71</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="1">
         <v>1</v>
       </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
       <c r="N13" s="1">
         <v>0</v>
       </c>
@@ -2487,47 +2606,50 @@
       <c r="P13" s="1">
         <v>0</v>
       </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="14" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A14" s="1">
         <v>301012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="1">
+        <v>95</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>3</v>
       </c>
-      <c r="G14" s="1">
-        <v>12</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>61</v>
+      <c r="H14" s="1">
+        <v>24</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="1">
+        <v>71</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="1">
         <v>2</v>
       </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
         <v>0</v>
       </c>
@@ -2537,47 +2659,50 @@
       <c r="P14" s="1">
         <v>0</v>
       </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="15" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A15" s="1">
         <v>301013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="1">
+        <v>99</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
-        <v>13</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>61</v>
+      <c r="H15" s="1">
+        <v>24</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15" s="1">
+        <v>71</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" s="1">
         <v>3</v>
       </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
       <c r="N15" s="1">
         <v>0</v>
       </c>
@@ -2587,47 +2712,50 @@
       <c r="P15" s="1">
         <v>0</v>
       </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="16" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A16" s="1">
         <v>301014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="1">
+        <v>103</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="1">
         <v>2</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>5</v>
       </c>
-      <c r="G16" s="1">
-        <v>14</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>61</v>
+      <c r="H16" s="1">
+        <v>24</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="1">
+        <v>71</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="1">
         <v>4</v>
       </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
       <c r="N16" s="1">
         <v>0</v>
       </c>
@@ -2637,47 +2765,50 @@
       <c r="P16" s="1">
         <v>0</v>
       </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="17" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A17" s="1">
         <v>301015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="1">
+        <v>107</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="1">
         <v>3</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>4</v>
       </c>
-      <c r="G17" s="1">
-        <v>15</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>61</v>
+      <c r="H17" s="1">
+        <v>24</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="1">
+        <v>71</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="1">
         <v>5</v>
       </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
       <c r="N17" s="1">
         <v>0</v>
       </c>
@@ -2687,47 +2818,50 @@
       <c r="P17" s="1">
         <v>0</v>
       </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="18" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A18" s="1">
         <v>301016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="1">
+        <v>110</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>4</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>2</v>
       </c>
-      <c r="G18" s="1">
-        <v>16</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>61</v>
+      <c r="H18" s="1">
+        <v>24</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18" s="1">
+        <v>71</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" s="1">
         <v>1</v>
       </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
       <c r="N18" s="1">
         <v>0</v>
       </c>
@@ -2737,47 +2871,50 @@
       <c r="P18" s="1">
         <v>0</v>
       </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="19" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A19" s="1">
         <v>301017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="1">
+        <v>113</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="1">
         <v>2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>5</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>3</v>
       </c>
-      <c r="G19" s="1">
-        <v>17</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>61</v>
+      <c r="H19" s="1">
+        <v>24</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19" s="1">
+        <v>71</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M19" s="1">
         <v>2</v>
       </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
       <c r="N19" s="1">
         <v>0</v>
       </c>
@@ -2787,47 +2924,50 @@
       <c r="P19" s="1">
         <v>0</v>
       </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="20" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A20" s="1">
         <v>301018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="1">
+        <v>113</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="1">
         <v>3</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>6</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="1">
-        <v>18</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>61</v>
+      <c r="H20" s="1">
+        <v>24</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="1">
+        <v>71</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" s="1">
         <v>3</v>
       </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
       <c r="N20" s="1">
         <v>0</v>
       </c>
@@ -2837,47 +2977,50 @@
       <c r="P20" s="1">
         <v>0</v>
       </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="21" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A21" s="1">
         <v>301019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="1">
+        <v>113</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="1">
         <v>4</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="G21" s="1">
-        <v>19</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>61</v>
+      <c r="H21" s="1">
+        <v>24</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="1">
+        <v>71</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" s="1">
         <v>4</v>
       </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
       <c r="N21" s="1">
         <v>0</v>
       </c>
@@ -2887,47 +3030,50 @@
       <c r="P21" s="1">
         <v>0</v>
       </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="22" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A22" s="1">
         <v>301020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="1">
+        <v>113</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="1">
         <v>5</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>2</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>4</v>
       </c>
-      <c r="G22" s="1">
-        <v>20</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>61</v>
+      <c r="H22" s="1">
+        <v>24</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="1">
+        <v>71</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" s="1">
         <v>5</v>
       </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
       <c r="N22" s="1">
         <v>0</v>
       </c>
@@ -2937,47 +3083,50 @@
       <c r="P22" s="1">
         <v>0</v>
       </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="23" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A23" s="1">
         <v>301021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="1">
+        <v>122</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="1">
         <v>3</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>2</v>
       </c>
-      <c r="G23" s="1">
-        <v>21</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>61</v>
+      <c r="H23" s="1">
+        <v>24</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L23" s="1">
+        <v>71</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M23" s="1">
         <v>1</v>
       </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
       <c r="N23" s="1">
         <v>0</v>
       </c>
@@ -2987,47 +3136,50 @@
       <c r="P23" s="1">
         <v>0</v>
       </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="24" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A24" s="1">
         <v>301022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="1">
+        <v>125</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="1">
         <v>4</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>3</v>
       </c>
-      <c r="G24" s="1">
-        <v>22</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>61</v>
+      <c r="H24" s="1">
+        <v>24</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24" s="1">
+        <v>71</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24" s="1">
         <v>2</v>
       </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
       <c r="N24" s="1">
         <v>0</v>
       </c>
@@ -3037,47 +3189,50 @@
       <c r="P24" s="1">
         <v>0</v>
       </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="25" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A25" s="1">
         <v>301023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>24</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="1">
-        <v>5</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>23</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="K25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L25" s="1">
+        <v>71</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" s="1">
         <v>3</v>
       </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
       <c r="N25" s="1">
         <v>0</v>
       </c>
@@ -3087,47 +3242,50 @@
       <c r="P25" s="1">
         <v>0</v>
       </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="26" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A26" s="1">
         <v>301024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="1">
+        <v>131</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="1">
         <v>6</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>5</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>24</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="I26" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L26" s="1">
+        <v>71</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="1">
         <v>4</v>
       </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
       <c r="N26" s="1">
         <v>0</v>
       </c>
@@ -3137,47 +3295,50 @@
       <c r="P26" s="1">
         <v>0</v>
       </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="27" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A27" s="1">
         <v>301025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="1">
+        <v>134</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>4</v>
       </c>
-      <c r="G27" s="1">
-        <v>25</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>61</v>
+      <c r="H27" s="1">
+        <v>24</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L27" s="1">
+        <v>71</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M27" s="1">
         <v>5</v>
       </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
       <c r="N27" s="1">
         <v>0</v>
       </c>
@@ -3187,47 +3348,50 @@
       <c r="P27" s="1">
         <v>0</v>
       </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="28" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A28" s="1">
         <v>301026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2</v>
+        <v>137</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
       </c>
       <c r="G28" s="1">
-        <v>26</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>24</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L28" s="1">
+        <v>71</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M28" s="1">
         <v>1</v>
       </c>
-      <c r="M28" s="1">
-        <v>0</v>
-      </c>
       <c r="N28" s="1">
         <v>0</v>
       </c>
@@ -3237,47 +3401,50 @@
       <c r="P28" s="1">
         <v>0</v>
       </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="29" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A29" s="1">
         <v>301027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="1">
-        <v>3</v>
+        <v>139</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="F29" s="1">
         <v>3</v>
       </c>
       <c r="G29" s="1">
-        <v>27</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>61</v>
+        <v>3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>24</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L29" s="1">
+        <v>71</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M29" s="1">
         <v>2</v>
       </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
       <c r="N29" s="1">
         <v>0</v>
       </c>
@@ -3287,47 +3454,50 @@
       <c r="P29" s="1">
         <v>0</v>
       </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="33" spans="1:16">
+    <row r="30" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A30" s="1">
         <v>301028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="1">
+        <v>141</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="1">
         <v>4</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="G30" s="1">
-        <v>28</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>61</v>
+      <c r="H30" s="1">
+        <v>24</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L30" s="1">
+        <v>71</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M30" s="1">
         <v>3</v>
       </c>
-      <c r="M30" s="1">
-        <v>0</v>
-      </c>
       <c r="N30" s="1">
         <v>0</v>
       </c>
@@ -3335,6 +3505,9 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
         <v>0</v>
       </c>
     </row>

--- a/common/Card.xlsx
+++ b/common/Card.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="147">
   <si>
     <t>序号</t>
   </si>
@@ -30,6 +30,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">特长
 </t>
     </r>
@@ -49,6 +56,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">获取途径
 </t>
     </r>
@@ -195,6 +209,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">channel_intro </t>
     </r>
     <r>
@@ -211,6 +232,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">description
 </t>
     </r>
@@ -780,40 +808,55 @@
     <t>庚辰</t>
   </si>
   <si>
+    <t>关卡第二章</t>
+  </si>
+  <si>
+    <t>啊我的小姐姐</t>
+  </si>
+  <si>
+    <t>辛巳</t>
+  </si>
+  <si>
+    <t>裴邈书信1</t>
+  </si>
+  <si>
+    <t>我好喜欢你啊</t>
+  </si>
+  <si>
+    <t>壬午</t>
+  </si>
+  <si>
+    <t>裴邈书信2</t>
+  </si>
+  <si>
+    <t>你是最可爱的</t>
+  </si>
+  <si>
+    <t>癸未</t>
+  </si>
+  <si>
+    <t>裴邈书信3</t>
+  </si>
+  <si>
+    <t>这黛色如月夜</t>
+  </si>
+  <si>
+    <t>甲申</t>
+  </si>
+  <si>
+    <t>裴邈书信4</t>
+  </si>
+  <si>
+    <t>褐瞳</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>乙酉</t>
+  </si>
+  <si>
     <t>卡池</t>
-  </si>
-  <si>
-    <t>啊我的小姐姐</t>
-  </si>
-  <si>
-    <t>辛巳</t>
-  </si>
-  <si>
-    <t>我好喜欢你啊</t>
-  </si>
-  <si>
-    <t>壬午</t>
-  </si>
-  <si>
-    <t>你是最可爱的</t>
-  </si>
-  <si>
-    <t>癸未</t>
-  </si>
-  <si>
-    <t>这黛色如月夜</t>
-  </si>
-  <si>
-    <t>甲申</t>
-  </si>
-  <si>
-    <t>褐瞳</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>乙酉</t>
   </si>
   <si>
     <t>朱砂痣</t>
@@ -873,8 +916,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -914,9 +957,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -924,6 +981,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,29 +1018,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,18 +1072,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -994,52 +1083,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1078,7 +1121,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,13 +1199,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,13 +1253,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,37 +1271,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,91 +1295,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,30 +1379,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1378,6 +1397,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1386,8 +1429,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1399,145 +1442,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1893,7 +1936,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2118,7 +2161,7 @@
         <v>49</v>
       </c>
       <c r="M4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -2171,7 +2214,7 @@
         <v>2103</v>
       </c>
       <c r="M5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -2224,7 +2267,7 @@
         <v>59</v>
       </c>
       <c r="M6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
@@ -2277,7 +2320,7 @@
         <v>42</v>
       </c>
       <c r="M7" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
@@ -2383,7 +2426,7 @@
         <v>72</v>
       </c>
       <c r="M9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
@@ -2436,7 +2479,7 @@
         <v>72</v>
       </c>
       <c r="M10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
@@ -2489,7 +2532,7 @@
         <v>72</v>
       </c>
       <c r="M11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
@@ -2542,7 +2585,7 @@
         <v>72</v>
       </c>
       <c r="M12" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
@@ -2648,7 +2691,7 @@
         <v>72</v>
       </c>
       <c r="M14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
@@ -2701,7 +2744,7 @@
         <v>72</v>
       </c>
       <c r="M15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
@@ -2754,7 +2797,7 @@
         <v>72</v>
       </c>
       <c r="M16" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1">
         <v>0</v>
@@ -2807,7 +2850,7 @@
         <v>72</v>
       </c>
       <c r="M17" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
@@ -2877,7 +2920,7 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A19" s="1">
-        <v>301017</v>
+        <v>302001</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>112</v>
@@ -2930,16 +2973,16 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A20" s="1">
-        <v>301018</v>
+        <v>302002</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -2966,7 +3009,7 @@
         <v>72</v>
       </c>
       <c r="M20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -2983,16 +3026,16 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A21" s="1">
-        <v>301019</v>
+        <v>302003</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E21" s="1">
         <v>4</v>
@@ -3019,7 +3062,7 @@
         <v>72</v>
       </c>
       <c r="M21" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -3036,16 +3079,16 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A22" s="1">
-        <v>301020</v>
+        <v>302004</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
@@ -3072,7 +3115,7 @@
         <v>72</v>
       </c>
       <c r="M22" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
@@ -3089,19 +3132,19 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A23" s="1">
-        <v>301021</v>
+        <v>302005</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F23" s="1">
         <v>3</v>
@@ -3125,7 +3168,7 @@
         <v>72</v>
       </c>
       <c r="M23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" s="1">
         <v>0</v>
@@ -3142,16 +3185,16 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A24" s="1">
-        <v>301022</v>
+        <v>302006</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>76</v>
@@ -3195,16 +3238,16 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A25" s="1">
-        <v>301023</v>
+        <v>302007</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>80</v>
@@ -3231,7 +3274,7 @@
         <v>72</v>
       </c>
       <c r="M25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N25" s="1">
         <v>0</v>
@@ -3248,16 +3291,16 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A26" s="1">
-        <v>301024</v>
+        <v>302008</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>84</v>
@@ -3284,7 +3327,7 @@
         <v>72</v>
       </c>
       <c r="M26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N26" s="1">
         <v>0</v>
@@ -3301,16 +3344,16 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A27" s="1">
-        <v>301025</v>
+        <v>302009</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>88</v>
@@ -3337,7 +3380,7 @@
         <v>72</v>
       </c>
       <c r="M27" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N27" s="1">
         <v>0</v>
@@ -3354,16 +3397,16 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A28" s="1">
-        <v>301026</v>
+        <v>302010</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>92</v>
@@ -3390,7 +3433,7 @@
         <v>72</v>
       </c>
       <c r="M28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" s="1">
         <v>0</v>
@@ -3407,16 +3450,16 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A29" s="1">
-        <v>301027</v>
+        <v>302011</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>96</v>
@@ -3460,16 +3503,16 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A30" s="1">
-        <v>301028</v>
+        <v>302012</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>100</v>
@@ -3496,7 +3539,7 @@
         <v>72</v>
       </c>
       <c r="M30" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N30" s="1">
         <v>0</v>

--- a/common/Card.xlsx
+++ b/common/Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23535" windowHeight="12465"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
   <si>
     <t>序号</t>
   </si>
@@ -943,7 +943,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,22 +1005,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,48 +1019,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1042,22 +1035,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1072,6 +1057,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1080,7 +1073,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1121,7 +1121,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,43 +1199,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,31 +1217,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,73 +1289,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,11 +1339,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1359,6 +1366,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1392,48 +1434,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1442,10 +1442,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1454,133 +1454,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1931,12 +1931,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>39</v>
@@ -2146,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>46</v>
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>53</v>
@@ -2252,7 +2252,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>58</v>
@@ -2305,7 +2305,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>63</v>
@@ -2358,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>69</v>
@@ -2411,7 +2411,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>69</v>
@@ -2464,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>69</v>
@@ -2517,7 +2517,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>69</v>
@@ -2570,7 +2570,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>69</v>
@@ -2623,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>69</v>
@@ -2676,7 +2676,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>69</v>
@@ -2729,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>69</v>
@@ -2782,7 +2782,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>69</v>
@@ -2835,7 +2835,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>69</v>
@@ -2888,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>69</v>
@@ -2941,7 +2941,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>69</v>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>69</v>
@@ -3047,7 +3047,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>69</v>
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>69</v>
@@ -3153,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>69</v>
@@ -3206,7 +3206,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>69</v>
@@ -3259,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>69</v>
@@ -3312,7 +3312,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>69</v>
@@ -3365,7 +3365,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>69</v>
@@ -3418,7 +3418,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>69</v>
@@ -3471,7 +3471,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>69</v>
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>24</v>
+        <v>301001</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>69</v>

--- a/common/Card.xlsx
+++ b/common/Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -232,15 +232,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">description
-</t>
+      <t xml:space="preserve">description </t>
     </r>
     <r>
       <rPr>
@@ -915,10 +907,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -943,6 +935,119 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -958,74 +1063,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1035,52 +1072,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1121,7 +1113,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,169 +1281,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,24 +1329,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1379,17 +1353,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1405,6 +1368,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1416,6 +1390,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1439,148 +1431,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1603,63 +1595,63 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1936,12 +1928,12 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.69166666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.69230769230769" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="4" width="17.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
@@ -1955,7 +1947,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="114.75" spans="1:18">
+    <row r="1" ht="110.75" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1992,26 +1984,26 @@
       <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="32.25" spans="1:18">
+    <row r="2" ht="32.75" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -2036,16 +2028,16 @@
       <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -2067,7 +2059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" ht="32" spans="1:18">
       <c r="A3" s="1">
         <v>301001</v>
       </c>
@@ -2123,7 +2115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:17">
+    <row r="4" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A4" s="1">
         <v>301002</v>
       </c>
@@ -2176,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:17">
+    <row r="5" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A5" s="1">
         <v>301003</v>
       </c>
@@ -2229,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:17">
+    <row r="6" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A6" s="1">
         <v>301004</v>
       </c>
@@ -2282,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:17">
+    <row r="7" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A7" s="1">
         <v>301005</v>
       </c>
@@ -2335,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="8" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A8" s="1">
         <v>301006</v>
       </c>
@@ -2388,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="9" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A9" s="1">
         <v>301007</v>
       </c>
@@ -2441,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="10" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A10" s="1">
         <v>301008</v>
       </c>
@@ -2494,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="11" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A11" s="1">
         <v>301009</v>
       </c>
@@ -2547,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="12" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A12" s="1">
         <v>301010</v>
       </c>
@@ -2600,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="13" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A13" s="1">
         <v>301011</v>
       </c>
@@ -2653,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="14" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A14" s="1">
         <v>301012</v>
       </c>
@@ -2706,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="15" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A15" s="1">
         <v>301013</v>
       </c>
@@ -2759,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="16" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A16" s="1">
         <v>301014</v>
       </c>
@@ -2812,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="17" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A17" s="1">
         <v>301015</v>
       </c>
@@ -2865,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="18" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A18" s="1">
         <v>301016</v>
       </c>
@@ -2918,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="19" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A19" s="1">
         <v>302001</v>
       </c>
@@ -2971,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="20" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A20" s="1">
         <v>302002</v>
       </c>
@@ -3024,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="21" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A21" s="1">
         <v>302003</v>
       </c>
@@ -3077,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="22" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A22" s="1">
         <v>302004</v>
       </c>
@@ -3130,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="23" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A23" s="1">
         <v>302005</v>
       </c>
@@ -3183,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="24" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A24" s="1">
         <v>302006</v>
       </c>
@@ -3236,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="25" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A25" s="1">
         <v>302007</v>
       </c>
@@ -3289,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="26" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A26" s="1">
         <v>302008</v>
       </c>
@@ -3342,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="27" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A27" s="1">
         <v>302009</v>
       </c>
@@ -3395,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="28" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A28" s="1">
         <v>302010</v>
       </c>
@@ -3448,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="29" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A29" s="1">
         <v>302011</v>
       </c>
@@ -3501,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="30" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A30" s="1">
         <v>302012</v>
       </c>

--- a/common/Card.xlsx
+++ b/common/Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16020"/>
+    <workbookView windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="147">
   <si>
     <t>序号</t>
   </si>
@@ -110,7 +110,7 @@
   </si>
   <si>
     <t>立绘id
-关联到RolePortray</t>
+关联到Scene</t>
   </si>
   <si>
     <t>威严资质组</t>
@@ -232,6 +232,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">description </t>
     </r>
     <r>
@@ -907,10 +914,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -941,9 +948,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -956,15 +962,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,7 +1008,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -987,7 +1016,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1011,42 +1040,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1062,17 +1070,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1113,7 +1120,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,169 +1294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,6 +1337,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1344,11 +1366,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1370,26 +1398,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1405,24 +1425,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1431,148 +1438,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1595,63 +1602,63 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1923,17 +1930,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.69230769230769" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.69166666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="4" width="17.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
@@ -1947,7 +1954,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="110.75" spans="1:18">
+    <row r="1" ht="114.75" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1984,26 +1991,26 @@
       <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="32.75" spans="1:18">
+    <row r="2" ht="32.25" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -2028,16 +2035,16 @@
       <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>29</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -2059,7 +2066,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="32" spans="1:18">
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>301001</v>
       </c>
@@ -2115,7 +2122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="4" s="1" customFormat="1" spans="1:17">
       <c r="A4" s="1">
         <v>301002</v>
       </c>
@@ -2168,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="5" s="1" customFormat="1" spans="1:17">
       <c r="A5" s="1">
         <v>301003</v>
       </c>
@@ -2221,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="6" s="1" customFormat="1" spans="1:17">
       <c r="A6" s="1">
         <v>301004</v>
       </c>
@@ -2274,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="7" s="1" customFormat="1" spans="1:17">
       <c r="A7" s="1">
         <v>301005</v>
       </c>
@@ -2327,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="8" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A8" s="1">
         <v>301006</v>
       </c>
@@ -2380,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="9" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A9" s="1">
         <v>301007</v>
       </c>
@@ -2433,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="10" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A10" s="1">
         <v>301008</v>
       </c>
@@ -2486,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="11" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A11" s="1">
         <v>301009</v>
       </c>
@@ -2539,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="12" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A12" s="1">
         <v>301010</v>
       </c>
@@ -2592,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="13" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A13" s="1">
         <v>301011</v>
       </c>
@@ -2645,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="14" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A14" s="1">
         <v>301012</v>
       </c>
@@ -2698,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="15" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A15" s="1">
         <v>301013</v>
       </c>
@@ -2751,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="16" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A16" s="1">
         <v>301014</v>
       </c>
@@ -2804,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="17" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A17" s="1">
         <v>301015</v>
       </c>
@@ -2857,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="18" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A18" s="1">
         <v>301016</v>
       </c>
@@ -2910,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="19" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A19" s="1">
         <v>302001</v>
       </c>
@@ -2963,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="20" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A20" s="1">
         <v>302002</v>
       </c>
@@ -3016,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="21" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A21" s="1">
         <v>302003</v>
       </c>
@@ -3069,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="22" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A22" s="1">
         <v>302004</v>
       </c>
@@ -3122,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="23" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A23" s="1">
         <v>302005</v>
       </c>
@@ -3175,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="24" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A24" s="1">
         <v>302006</v>
       </c>
@@ -3228,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="25" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A25" s="1">
         <v>302007</v>
       </c>
@@ -3281,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="26" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A26" s="1">
         <v>302008</v>
       </c>
@@ -3334,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="27" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A27" s="1">
         <v>302009</v>
       </c>
@@ -3387,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="28" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A28" s="1">
         <v>302010</v>
       </c>
@@ -3440,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="29" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A29" s="1">
         <v>302011</v>
       </c>
@@ -3493,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="32" spans="1:17">
+    <row r="30" s="1" customFormat="1" ht="33" spans="1:17">
       <c r="A30" s="1">
         <v>302012</v>
       </c>

--- a/common/Card.xlsx
+++ b/common/Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
   <si>
     <t>序号</t>
   </si>
@@ -914,9 +914,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -942,16 +942,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -962,9 +970,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,69 +985,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1054,9 +1000,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1077,11 +1030,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1120,7 +1120,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,37 +1234,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,7 +1270,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,115 +1294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,47 +1336,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1398,9 +1371,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1414,22 +1404,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1438,148 +1438,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1602,63 +1602,63 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1930,17 +1930,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.69166666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.69230769230769" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="4" width="17.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
@@ -1949,12 +1949,13 @@
     <col min="9" max="12" width="10.875" style="2" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="1" customWidth="1"/>
     <col min="14" max="14" width="14.5" style="1" customWidth="1"/>
-    <col min="15" max="17" width="9" style="1"/>
+    <col min="15" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="9.69230769230769" style="1"/>
     <col min="18" max="18" width="11.125" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="114.75" spans="1:18">
+    <row r="1" ht="110.75" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1991,26 +1992,26 @@
       <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="32.25" spans="1:18">
+    <row r="2" ht="32.75" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -2035,16 +2036,16 @@
       <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -2066,7 +2067,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" ht="32" spans="1:18">
       <c r="A3" s="1">
         <v>301001</v>
       </c>
@@ -2122,7 +2123,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:17">
+    <row r="4" s="1" customFormat="1" ht="32" spans="1:18">
       <c r="A4" s="1">
         <v>301002</v>
       </c>
@@ -2172,10 +2173,13 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>110002</v>
+      </c>
+      <c r="R4" s="1">
+        <v>150</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:17">
+    <row r="5" s="1" customFormat="1" ht="32" spans="1:18">
       <c r="A5" s="1">
         <v>301003</v>
       </c>
@@ -2225,10 +2229,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>110003</v>
+      </c>
+      <c r="R5" s="1">
+        <v>200</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:17">
+    <row r="6" s="1" customFormat="1" ht="32" spans="1:18">
       <c r="A6" s="1">
         <v>301004</v>
       </c>
@@ -2278,10 +2285,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>110004</v>
+      </c>
+      <c r="R6" s="1">
+        <v>250</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:17">
+    <row r="7" s="1" customFormat="1" ht="32" spans="1:18">
       <c r="A7" s="1">
         <v>301005</v>
       </c>
@@ -2331,10 +2341,13 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>110005</v>
+      </c>
+      <c r="R7" s="1">
+        <v>300</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="8" s="1" customFormat="1" ht="32" spans="1:18">
       <c r="A8" s="1">
         <v>301006</v>
       </c>
@@ -2384,10 +2397,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>110006</v>
+      </c>
+      <c r="R8" s="1">
+        <v>350</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="9" s="1" customFormat="1" ht="32" spans="1:18">
       <c r="A9" s="1">
         <v>301007</v>
       </c>
@@ -2437,10 +2453,13 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>110007</v>
+      </c>
+      <c r="R9" s="1">
+        <v>400</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="10" s="1" customFormat="1" ht="32" spans="1:18">
       <c r="A10" s="1">
         <v>301008</v>
       </c>
@@ -2490,10 +2509,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>110008</v>
+      </c>
+      <c r="R10" s="1">
+        <v>450</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="11" s="1" customFormat="1" ht="32" spans="1:18">
       <c r="A11" s="1">
         <v>301009</v>
       </c>
@@ -2543,10 +2565,13 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>110009</v>
+      </c>
+      <c r="R11" s="1">
+        <v>500</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="12" s="1" customFormat="1" ht="32" spans="1:18">
       <c r="A12" s="1">
         <v>301010</v>
       </c>
@@ -2596,10 +2621,13 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>110010</v>
+      </c>
+      <c r="R12" s="1">
+        <v>550</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="13" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A13" s="1">
         <v>301011</v>
       </c>
@@ -2652,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="14" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A14" s="1">
         <v>301012</v>
       </c>
@@ -2705,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="15" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A15" s="1">
         <v>301013</v>
       </c>
@@ -2758,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="16" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A16" s="1">
         <v>301014</v>
       </c>
@@ -2811,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="17" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A17" s="1">
         <v>301015</v>
       </c>
@@ -2864,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="18" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A18" s="1">
         <v>301016</v>
       </c>
@@ -2917,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="19" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A19" s="1">
         <v>302001</v>
       </c>
@@ -2970,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="20" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A20" s="1">
         <v>302002</v>
       </c>
@@ -3023,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="21" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A21" s="1">
         <v>302003</v>
       </c>
@@ -3076,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="22" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A22" s="1">
         <v>302004</v>
       </c>
@@ -3129,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="23" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A23" s="1">
         <v>302005</v>
       </c>
@@ -3182,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="24" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A24" s="1">
         <v>302006</v>
       </c>
@@ -3235,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="25" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A25" s="1">
         <v>302007</v>
       </c>
@@ -3288,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="26" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A26" s="1">
         <v>302008</v>
       </c>
@@ -3341,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="27" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A27" s="1">
         <v>302009</v>
       </c>
@@ -3394,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="28" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A28" s="1">
         <v>302010</v>
       </c>
@@ -3447,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="29" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A29" s="1">
         <v>302011</v>
       </c>
@@ -3500,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="33" spans="1:17">
+    <row r="30" s="1" customFormat="1" ht="32" spans="1:17">
       <c r="A30" s="1">
         <v>302012</v>
       </c>
